--- a/financial_models/opportunities/6186.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD696C4-F076-4B8E-8069-F3F3AB7AFF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB18D34C-B788-4EA2-AC72-BB29AB81D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.2087897040110994E-2</v>
+        <v>5.941197380361788E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4903,7 +4903,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.3699998855590803</v>
+        <v>5.63</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>48691.140612815376</v>
+        <v>51048.627093519994</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -5046,7 +5046,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0734576781590779</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6826738616300516</v>
+        <v>1.7584617171330321</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.6556050376175804E-2</v>
+        <v>6.3687554417683978E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2087897040110994E-2</v>
+        <v>5.941197380361788E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5291,20 +5291,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7151922299881703</v>
+        <v>3.6774697258116267</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7908571189758842</v>
+        <v>6.7234079217472109</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.370814388221377</v>
+        <v>4.3264349715430903</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9050931469355517</v>
+        <v>5.8464416710845315</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -10309,8 +10309,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10403,11 +10403,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9664696.9893597718</v>
+        <v>9579880.5981465094</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64262676750048464</v>
+        <v>0.64576303839756477</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10428,7 +10428,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.140502780357685</v>
+        <v>1.1341470072338415</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11494,11 +11494,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6826738616300516</v>
+        <v>1.7584617171330321</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2400223.207140401</v>
+        <v>2508329.5810169396</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12179,17 +12179,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6556050376175804E-2</v>
+        <v>6.3687554417683978E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6556050376175804E-2</v>
+        <v>6.3687554417683978E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6556050376175804E-2</v>
+        <v>6.3687554417683978E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12230,17 +12230,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2087897040110994E-2</v>
+        <v>5.941197380361788E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2087897040110994E-2</v>
+        <v>5.941197380361788E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2087897040110994E-2</v>
+        <v>5.941197380361788E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12300,14 +12300,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.8509017680759223</v>
+        <v>6.7811111043806953</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.8509017680759223</v>
+        <v>6.7811111043806953</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12325,14 +12325,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.2582229330455306</v>
+        <v>6.1997512537986061</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.2582229330455306</v>
+        <v>6.1997512537986061</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12375,21 +12375,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30884047.406683229</v>
+        <v>30569429.238290973</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4061089749012692</v>
+        <v>3.3714106805709751</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4061089749012692</v>
+        <v>3.3714106805709751</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8392026980031355</v>
+        <v>4.7899053675957513</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12399,14 +12399,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2568238.8316402291</v>
+        <v>2692585.6480961768</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.28324335923169042</v>
+        <v>0.29695719673342119</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12417,17 +12417,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12232935.821000002</v>
+        <v>12272466.246242685</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1467637369394903</v>
+        <v>1.1504694751888715</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3491338081641062</v>
+        <v>1.3534935002222019</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12438,27 +12438,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40548744.396043003</v>
+        <v>40149309.836437479</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7151922299881703</v>
+        <v>3.6774697258116267</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2696293526090692</v>
+        <v>4.2249229590264257</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.370814388221377</v>
+        <v>4.3264349715430903</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4719994238336849</v>
+        <v>4.427946984059755</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.9050931469355517</v>
+        <v>5.8464416710845315</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12499,27 +12499,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>28212235.452918023</v>
+        <v>27948643.567507356</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6447264196273954</v>
+        <v>2.6200162748213098</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1114428466204651</v>
+        <v>3.0823720880250702</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1114428466204651</v>
+        <v>3.0823720880250702</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1114428466204651</v>
+        <v>3.0823720880250702</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.420558099872526</v>
+        <v>4.3792560468658666</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12560,27 +12560,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33463019.73790551</v>
+        <v>33128541.733504221</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1799593248077827</v>
+        <v>3.1487430003164683</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6905360996147669</v>
+        <v>3.653647523525748</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7411286174209213</v>
+        <v>3.7044035297840803</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7917211352270748</v>
+        <v>3.7551595360424126</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1628256234040393</v>
+        <v>5.112848858975199</v>
       </c>
       <c r="K106" s="24"/>
     </row>
